--- a/me-docs/12.Xay-dung-chuc-nang-tim-kiem.xlsx
+++ b/me-docs/12.Xay-dung-chuc-nang-tim-kiem.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1441B40-3F6E-490B-94C4-6B5B451EEF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB5380F-1AE1-4B01-81D9-EBCA0646B64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="showAreaSearch" sheetId="1" r:id="rId1"/>
+    <sheet name="search by field" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>config\zvn.php</t>
   </si>
@@ -52,6 +53,18 @@
   </si>
   <si>
     <t>Check on browser</t>
+  </si>
+  <si>
+    <t>app\Models\SliderModel.php</t>
+  </si>
+  <si>
+    <t>Access url to check</t>
+  </si>
+  <si>
+    <t>Search by All</t>
+  </si>
+  <si>
+    <t>Search by Name</t>
   </si>
 </sst>
 </file>
@@ -452,6 +465,231 @@
         <a:xfrm>
           <a:off x="609600" y="37338000"/>
           <a:ext cx="11637818" cy="6000750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>171037</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D59BD3B8-1BA9-4434-A969-5C93588340C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="381000"/>
+          <a:ext cx="11468100" cy="5886037"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>82997</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3799B1E-D268-4A88-95D1-593DF3B6FE46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="6667500"/>
+          <a:ext cx="11544300" cy="5988497"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>168843</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{582571D4-27C6-4478-B3C8-260DD2C00934}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="12954000"/>
+          <a:ext cx="11296650" cy="2264343"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>511129</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D95E93A1-A662-4891-A787-19960F9CC047}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="15811500"/>
+          <a:ext cx="11483929" cy="5934075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>144351</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DD953B2-B4E4-444B-BDC7-14A7C97BC305}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="21907501"/>
+          <a:ext cx="11249025" cy="2239850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -728,7 +966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+    <sheetView topLeftCell="A214" workbookViewId="0">
       <selection activeCell="E232" sqref="E232"/>
     </sheetView>
   </sheetViews>
@@ -788,4 +1026,40 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A65A91A-9806-44B3-853E-94B0957E57E3}">
+  <dimension ref="A2:B83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="B129" sqref="B129"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/12.Xay-dung-chuc-nang-tim-kiem.xlsx
+++ b/me-docs/12.Xay-dung-chuc-nang-tim-kiem.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB5380F-1AE1-4B01-81D9-EBCA0646B64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EB0065-3870-402F-995C-AF61E9443939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="showAreaSearch" sheetId="1" r:id="rId1"/>
     <sheet name="search by field" sheetId="2" r:id="rId2"/>
+    <sheet name="search and filter" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>config\zvn.php</t>
   </si>
@@ -65,6 +66,9 @@
   </si>
   <si>
     <t>Search by Name</t>
+  </si>
+  <si>
+    <t>Check</t>
   </si>
 </sst>
 </file>
@@ -690,6 +694,99 @@
         <a:xfrm>
           <a:off x="609600" y="21907501"/>
           <a:ext cx="11249025" cy="2239850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>265175</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B225F2E5-3F4D-4DB3-B739-1BC4392D429B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="381000"/>
+          <a:ext cx="11237974" cy="5781675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>70891</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F819076-7F0B-49B4-B32C-32DFCC09D5CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="6477001"/>
+          <a:ext cx="11477624" cy="2166390"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1032,7 +1129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A65A91A-9806-44B3-853E-94B0957E57E3}">
   <dimension ref="A2:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+    <sheetView topLeftCell="A124" workbookViewId="0">
       <selection activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
@@ -1062,4 +1159,25 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72049FAB-FAC0-4823-934B-EF9D9CC7248B}">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/12.Xay-dung-chuc-nang-tim-kiem.xlsx
+++ b/me-docs/12.Xay-dung-chuc-nang-tim-kiem.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EB0065-3870-402F-995C-AF61E9443939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCCF83C-BF0A-43E7-97E0-1AA5B10C8601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="showAreaSearch" sheetId="1" r:id="rId1"/>
     <sheet name="search by field" sheetId="2" r:id="rId2"/>
     <sheet name="search and filter" sheetId="3" r:id="rId3"/>
+    <sheet name="btnClearSearch event" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>config\zvn.php</t>
   </si>
@@ -69,6 +70,9 @@
   </si>
   <si>
     <t>Check</t>
+  </si>
+  <si>
+    <t>Result after click btnClearSearch</t>
   </si>
 </sst>
 </file>
@@ -787,6 +791,143 @@
         <a:xfrm>
           <a:off x="609601" y="6477001"/>
           <a:ext cx="11477624" cy="2166390"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>236647</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>8952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB4C02D9-5B43-432F-B862-2BC8ACF417EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="11819047" cy="4580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>454623</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9397F7F3-C5D4-4EEC-8A84-12C6C9D6D8B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="5334000"/>
+          <a:ext cx="11427423" cy="5848350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>87311</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D31CBF-E17F-4F7A-847E-6D7EB84A1120}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="11620500"/>
+          <a:ext cx="11353800" cy="5802311"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1165,7 +1306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72049FAB-FAC0-4823-934B-EF9D9CC7248B}">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
@@ -1180,4 +1321,35 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A92DE479-CDA4-4C21-BC46-9E369395A275}">
+  <dimension ref="A2:B61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/12.Xay-dung-chuc-nang-tim-kiem.xlsx
+++ b/me-docs/12.Xay-dung-chuc-nang-tim-kiem.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCCF83C-BF0A-43E7-97E0-1AA5B10C8601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19231AB8-BD4A-4DD4-83C7-6EFB1C332E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="showAreaSearch" sheetId="1" r:id="rId1"/>
     <sheet name="search by field" sheetId="2" r:id="rId2"/>
     <sheet name="search and filter" sheetId="3" r:id="rId3"/>
     <sheet name="btnClearSearch event" sheetId="5" r:id="rId4"/>
+    <sheet name="countByStatus" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>config\zvn.php</t>
   </si>
@@ -73,6 +74,9 @@
   </si>
   <si>
     <t>Result after click btnClearSearch</t>
+  </si>
+  <si>
+    <t>Access browser to check</t>
   </si>
 </sst>
 </file>
@@ -928,6 +932,99 @@
         <a:xfrm>
           <a:off x="609601" y="11620500"/>
           <a:ext cx="11353800" cy="5802311"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>103390</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>180262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAD98181-4D75-477D-AB3C-1207701CFC0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="11076190" cy="5704762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>46324</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>189762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CC6B559-F71C-4767-B36D-CC6B1899E2F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="6477000"/>
+          <a:ext cx="10409524" cy="5904762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1327,8 +1424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A92DE479-CDA4-4C21-BC46-9E369395A275}">
   <dimension ref="A2:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1352,4 +1449,30 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA900E3-1478-4F2E-AC6D-12C5F65E071D}">
+  <dimension ref="A2:A34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/12.Xay-dung-chuc-nang-tim-kiem.xlsx
+++ b/me-docs/12.Xay-dung-chuc-nang-tim-kiem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19231AB8-BD4A-4DD4-83C7-6EFB1C332E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1A7FE7-4018-48A4-9E3F-DDB74D5A6AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="showAreaSearch" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="search and filter" sheetId="3" r:id="rId3"/>
     <sheet name="btnClearSearch event" sheetId="5" r:id="rId4"/>
     <sheet name="countByStatus" sheetId="6" r:id="rId5"/>
+    <sheet name="search filter pagination" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>config\zvn.php</t>
   </si>
@@ -77,6 +78,9 @@
   </si>
   <si>
     <t>Access browser to check</t>
+  </si>
+  <si>
+    <t>resources\views\admin\templates\pagination.blade.php</t>
   </si>
 </sst>
 </file>
@@ -1025,6 +1029,231 @@
         <a:xfrm>
           <a:off x="609600" y="6477000"/>
           <a:ext cx="10409524" cy="5904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>379581</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>94881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08801664-1B30-4C4D-A4A1-47BC718C064E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="11352381" cy="2952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>17600</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>8762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17CF5913-6773-4678-BA33-DFBD9CF37520}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="3810000"/>
+          <a:ext cx="11600000" cy="6104762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>208076</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>94881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FC3A383-15E5-4847-8EF3-C35D16182D96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="10287000"/>
+          <a:ext cx="11790476" cy="2952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>578661</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43526AC2-15BB-493F-92A2-35EE8AAD2465}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="13716001"/>
+          <a:ext cx="11551461" cy="5981700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>150885</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F58E2AA-F61C-4733-B53C-C303034DB905}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="20002500"/>
+          <a:ext cx="11830050" cy="2055885"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1455,8 +1684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA900E3-1478-4F2E-AC6D-12C5F65E071D}">
   <dimension ref="A2:A34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="T62" sqref="T62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1475,4 +1704,40 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13258C7F-E1C5-44A9-A7E5-593BC679368D}">
+  <dimension ref="A2:A72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B106" sqref="B106"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/12.Xay-dung-chuc-nang-tim-kiem.xlsx
+++ b/me-docs/12.Xay-dung-chuc-nang-tim-kiem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1A7FE7-4018-48A4-9E3F-DDB74D5A6AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62DFFAD-9379-470B-B7E3-65FAF53309A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="showAreaSearch" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="btnClearSearch event" sheetId="5" r:id="rId4"/>
     <sheet name="countByStatus" sheetId="6" r:id="rId5"/>
     <sheet name="search filter pagination" sheetId="7" r:id="rId6"/>
+    <sheet name="Highlight" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>config\zvn.php</t>
   </si>
@@ -81,6 +82,12 @@
   </si>
   <si>
     <t>resources\views\admin\templates\pagination.blade.php</t>
+  </si>
+  <si>
+    <t>resources\views\admin\pages\slider\list.blade.php</t>
+  </si>
+  <si>
+    <t>app\Helpers\Highlight.php</t>
   </si>
 </sst>
 </file>
@@ -1254,6 +1261,143 @@
         <a:xfrm>
           <a:off x="609601" y="20002500"/>
           <a:ext cx="11830050" cy="2055885"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>150933</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>180262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD4C18B2-2203-4DA7-83A1-114EE3C74B9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="11733333" cy="5704762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>50244</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C771CF4F-FB7B-4970-A56C-240BF825EE09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="6477000"/>
+          <a:ext cx="11144250" cy="2717244"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>163372</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D203D0B9-E2F4-46BF-9125-B39BA58612B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="9525000"/>
+          <a:ext cx="11477625" cy="5878372"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1710,7 +1854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13258C7F-E1C5-44A9-A7E5-593BC679368D}">
   <dimension ref="A2:A72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+    <sheetView topLeftCell="A106" workbookViewId="0">
       <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
@@ -1740,4 +1884,35 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C92E12-A1C9-4054-9E98-0A684EA7A1A8}">
+  <dimension ref="A2:A50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>